--- a/natmiOut/OldD2/LR-pairs_lrc2p/Ifnk-Ifnar2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Ifnk-Ifnar2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.74516842053847</v>
+        <v>0.1379033333333333</v>
       </c>
       <c r="H2">
-        <v>0.74516842053847</v>
+        <v>0.41371</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.1151434304008604</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.1151434304008603</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>29.4282736653034</v>
+        <v>29.4475095</v>
       </c>
       <c r="N2">
-        <v>29.4282736653034</v>
+        <v>58.895019</v>
       </c>
       <c r="O2">
-        <v>0.1209072494526944</v>
+        <v>0.1188040616343076</v>
       </c>
       <c r="P2">
-        <v>0.1209072494526944</v>
+        <v>0.08432571340736816</v>
       </c>
       <c r="Q2">
-        <v>21.92902020634799</v>
+        <v>4.060909718415</v>
       </c>
       <c r="R2">
-        <v>21.92902020634799</v>
+        <v>24.36545831049</v>
       </c>
       <c r="S2">
-        <v>0.1209072494526944</v>
+        <v>0.01367950720212942</v>
       </c>
       <c r="T2">
-        <v>0.1209072494526944</v>
+        <v>0.009709551912724193</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.74516842053847</v>
+        <v>0.1379033333333333</v>
       </c>
       <c r="H3">
-        <v>0.74516842053847</v>
+        <v>0.41371</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.1151434304008604</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.1151434304008603</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>23.0644820376489</v>
+        <v>24.18563533333333</v>
       </c>
       <c r="N3">
-        <v>23.0644820376489</v>
+        <v>72.556906</v>
       </c>
       <c r="O3">
-        <v>0.09476135484328808</v>
+        <v>0.09757537257289008</v>
       </c>
       <c r="P3">
-        <v>0.09476135484328808</v>
+        <v>0.1038867626663191</v>
       </c>
       <c r="Q3">
-        <v>17.18692365053274</v>
+        <v>3.335279731251112</v>
       </c>
       <c r="R3">
-        <v>17.18692365053274</v>
+        <v>30.01751758126</v>
       </c>
       <c r="S3">
-        <v>0.09476135484328808</v>
+        <v>0.01123516312068459</v>
       </c>
       <c r="T3">
-        <v>0.09476135484328808</v>
+        <v>0.01196187822664001</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.74516842053847</v>
+        <v>0.1379033333333333</v>
       </c>
       <c r="H4">
-        <v>0.74516842053847</v>
+        <v>0.41371</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.1151434304008604</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.1151434304008603</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>71.1258203012561</v>
+        <v>73.143293</v>
       </c>
       <c r="N4">
-        <v>71.1258203012561</v>
+        <v>219.429879</v>
       </c>
       <c r="O4">
-        <v>0.2922233018320284</v>
+        <v>0.2950918579280267</v>
       </c>
       <c r="P4">
-        <v>0.2922233018320284</v>
+        <v>0.3141790494976744</v>
       </c>
       <c r="Q4">
-        <v>53.00071517339005</v>
+        <v>10.08670391567667</v>
       </c>
       <c r="R4">
-        <v>53.00071517339005</v>
+        <v>90.78033524109</v>
       </c>
       <c r="S4">
-        <v>0.2922233018320284</v>
+        <v>0.03397788880519632</v>
       </c>
       <c r="T4">
-        <v>0.2922233018320284</v>
+        <v>0.03617565351924393</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.74516842053847</v>
+        <v>0.1379033333333333</v>
       </c>
       <c r="H5">
-        <v>0.74516842053847</v>
+        <v>0.41371</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.1151434304008604</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.1151434304008603</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>82.4221251522092</v>
+        <v>82.44778433333333</v>
       </c>
       <c r="N5">
-        <v>82.4221251522092</v>
+        <v>247.343353</v>
       </c>
       <c r="O5">
-        <v>0.3386346259906108</v>
+        <v>0.3326302229921831</v>
       </c>
       <c r="P5">
-        <v>0.3386346259906108</v>
+        <v>0.3541454787253825</v>
       </c>
       <c r="Q5">
-        <v>61.41836481709583</v>
+        <v>11.36982428551445</v>
       </c>
       <c r="R5">
-        <v>61.41836481709583</v>
+        <v>102.32841856963</v>
       </c>
       <c r="S5">
-        <v>0.3386346259906108</v>
+        <v>0.0383001849303231</v>
       </c>
       <c r="T5">
-        <v>0.3386346259906108</v>
+        <v>0.04077752528139545</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -788,49 +788,49 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.74516842053847</v>
+        <v>0.1379033333333333</v>
       </c>
       <c r="H6">
-        <v>0.74516842053847</v>
+        <v>0.41371</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.1151434304008604</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.1151434304008603</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.6924629073783</v>
+        <v>22.91393266666667</v>
       </c>
       <c r="N6">
-        <v>21.6924629073783</v>
+        <v>68.741798</v>
       </c>
       <c r="O6">
-        <v>0.08912435890108027</v>
+        <v>0.09244477088342701</v>
       </c>
       <c r="P6">
-        <v>0.08912435890108027</v>
+        <v>0.09842430235492741</v>
       </c>
       <c r="Q6">
-        <v>16.16453832228044</v>
+        <v>3.15990769450889</v>
       </c>
       <c r="R6">
-        <v>16.16453832228044</v>
+        <v>28.43916925058</v>
       </c>
       <c r="S6">
-        <v>0.08912435890108027</v>
+        <v>0.01064440804213936</v>
       </c>
       <c r="T6">
-        <v>0.08912435890108027</v>
+        <v>0.01133291180795782</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -850,49 +850,421 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.74516842053847</v>
+        <v>0.1379033333333333</v>
       </c>
       <c r="H7">
-        <v>0.74516842053847</v>
+        <v>0.41371</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0.1151434304008604</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0.1151434304008603</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.6622799522998</v>
+        <v>15.72803</v>
       </c>
       <c r="N7">
-        <v>15.6622799522998</v>
+        <v>31.45606</v>
       </c>
       <c r="O7">
-        <v>0.06434910898029816</v>
+        <v>0.06345371398916565</v>
       </c>
       <c r="P7">
-        <v>0.06434910898029816</v>
+        <v>0.04503869334832845</v>
       </c>
       <c r="Q7">
-        <v>11.67103641408658</v>
+        <v>2.168947763766667</v>
       </c>
       <c r="R7">
-        <v>11.67103641408658</v>
+        <v>13.0136865826</v>
       </c>
       <c r="S7">
-        <v>0.06434910898029816</v>
+        <v>0.007306278300387594</v>
       </c>
       <c r="T7">
-        <v>0.06434910898029816</v>
+        <v>0.005185909652898949</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.059762333333333</v>
+      </c>
+      <c r="H8">
+        <v>3.179287</v>
+      </c>
+      <c r="I8">
+        <v>0.8848565695991397</v>
+      </c>
+      <c r="J8">
+        <v>0.8848565695991396</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>29.4475095</v>
+      </c>
+      <c r="N8">
+        <v>58.895019</v>
+      </c>
+      <c r="O8">
+        <v>0.1188040616343076</v>
+      </c>
+      <c r="P8">
+        <v>0.08432571340736816</v>
+      </c>
+      <c r="Q8">
+        <v>31.2073613785755</v>
+      </c>
+      <c r="R8">
+        <v>187.244168271453</v>
+      </c>
+      <c r="S8">
+        <v>0.1051245544321781</v>
+      </c>
+      <c r="T8">
+        <v>0.07461616149464396</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.059762333333333</v>
+      </c>
+      <c r="H9">
+        <v>3.179287</v>
+      </c>
+      <c r="I9">
+        <v>0.8848565695991397</v>
+      </c>
+      <c r="J9">
+        <v>0.8848565695991396</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>24.18563533333333</v>
+      </c>
+      <c r="N9">
+        <v>72.556906</v>
+      </c>
+      <c r="O9">
+        <v>0.09757537257289008</v>
+      </c>
+      <c r="P9">
+        <v>0.1038867626663191</v>
+      </c>
+      <c r="Q9">
+        <v>25.63102533400244</v>
+      </c>
+      <c r="R9">
+        <v>230.679228006022</v>
+      </c>
+      <c r="S9">
+        <v>0.0863402094522055</v>
+      </c>
+      <c r="T9">
+        <v>0.09192488443967906</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.059762333333333</v>
+      </c>
+      <c r="H10">
+        <v>3.179287</v>
+      </c>
+      <c r="I10">
+        <v>0.8848565695991397</v>
+      </c>
+      <c r="J10">
+        <v>0.8848565695991396</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>73.143293</v>
+      </c>
+      <c r="N10">
+        <v>219.429879</v>
+      </c>
+      <c r="O10">
+        <v>0.2950918579280267</v>
+      </c>
+      <c r="P10">
+        <v>0.3141790494976744</v>
+      </c>
+      <c r="Q10">
+        <v>77.51450685736366</v>
+      </c>
+      <c r="R10">
+        <v>697.630561716273</v>
+      </c>
+      <c r="S10">
+        <v>0.2611139691228304</v>
+      </c>
+      <c r="T10">
+        <v>0.2780033959784305</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.059762333333333</v>
+      </c>
+      <c r="H11">
+        <v>3.179287</v>
+      </c>
+      <c r="I11">
+        <v>0.8848565695991397</v>
+      </c>
+      <c r="J11">
+        <v>0.8848565695991396</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>82.44778433333333</v>
+      </c>
+      <c r="N11">
+        <v>247.343353</v>
+      </c>
+      <c r="O11">
+        <v>0.3326302229921831</v>
+      </c>
+      <c r="P11">
+        <v>0.3541454787253825</v>
+      </c>
+      <c r="Q11">
+        <v>87.37505630325677</v>
+      </c>
+      <c r="R11">
+        <v>786.3755067293109</v>
+      </c>
+      <c r="S11">
+        <v>0.29433003806186</v>
+      </c>
+      <c r="T11">
+        <v>0.313367953443987</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.059762333333333</v>
+      </c>
+      <c r="H12">
+        <v>3.179287</v>
+      </c>
+      <c r="I12">
+        <v>0.8848565695991397</v>
+      </c>
+      <c r="J12">
+        <v>0.8848565695991396</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>22.91393266666667</v>
+      </c>
+      <c r="N12">
+        <v>68.741798</v>
+      </c>
+      <c r="O12">
+        <v>0.09244477088342701</v>
+      </c>
+      <c r="P12">
+        <v>0.09842430235492741</v>
+      </c>
+      <c r="Q12">
+        <v>24.28332274866955</v>
+      </c>
+      <c r="R12">
+        <v>218.549904738026</v>
+      </c>
+      <c r="S12">
+        <v>0.08180036284128765</v>
+      </c>
+      <c r="T12">
+        <v>0.08709139054696959</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.059762333333333</v>
+      </c>
+      <c r="H13">
+        <v>3.179287</v>
+      </c>
+      <c r="I13">
+        <v>0.8848565695991397</v>
+      </c>
+      <c r="J13">
+        <v>0.8848565695991396</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>15.72803</v>
+      </c>
+      <c r="N13">
+        <v>31.45606</v>
+      </c>
+      <c r="O13">
+        <v>0.06345371398916565</v>
+      </c>
+      <c r="P13">
+        <v>0.04503869334832845</v>
+      </c>
+      <c r="Q13">
+        <v>16.66797377153667</v>
+      </c>
+      <c r="R13">
+        <v>100.00784262922</v>
+      </c>
+      <c r="S13">
+        <v>0.05614743568877806</v>
+      </c>
+      <c r="T13">
+        <v>0.0398527836954295</v>
       </c>
     </row>
   </sheetData>
